--- a/data/trans_camb/P16B18-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Dificultad-trans_camb.xlsx
@@ -526,7 +526,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16B18-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Dificultad-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.438652148428153</v>
+        <v>-0.9449439336585779</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.939270296065384</v>
+        <v>-3.586312026494204</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.70131708142604</v>
+        <v>17.67958894598379</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.26061823564444</v>
+        <v>13.64967988158353</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.01438599029498875</v>
+        <v>-0.009347511354645266</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.05078492372482344</v>
+        <v>-0.03582506746040773</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1863340390228058</v>
+        <v>0.2166942213651661</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1536998869828211</v>
+        <v>0.1647952402802664</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.908700505415381</v>
+        <v>-1.473859763323603</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.839356471913259</v>
+        <v>-6.365088156709383</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.65844865488068</v>
+        <v>15.30959670411274</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.05279111151872</v>
+        <v>12.81494876680726</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01955040798781482</v>
+        <v>-0.01548915316228502</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06061380503819427</v>
+        <v>-0.06645544166215006</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1771699323599498</v>
+        <v>0.1850621948610921</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1556635528245855</v>
+        <v>0.1523729353347387</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.589887339409275</v>
+        <v>1.575485226381615</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.748071707161</v>
+        <v>-8.884876244348632</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.13476358822404</v>
+        <v>14.35822198490043</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.194893973775315</v>
+        <v>9.780326908018983</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.01615520008509684</v>
+        <v>0.01600674597080675</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1104961522480014</v>
+        <v>-0.09203943167647329</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1646147609077657</v>
+        <v>0.1676543787592953</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.09200114591262597</v>
+        <v>0.1091565898422752</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.306470349738635</v>
+        <v>3.268194125754357</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.186393136659735</v>
+        <v>3.307141119781563</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>28.91252126989254</v>
+        <v>27.74245028980305</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>29.83882194011063</v>
+        <v>28.53684868177496</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.0341939215612586</v>
+        <v>0.0337860036546992</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.03291226753611468</v>
+        <v>0.03420221939489915</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4066497137966092</v>
+        <v>0.3838559877258411</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4252758149343596</v>
+        <v>0.3992869495246771</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.694132965918191</v>
+        <v>2.788449711908526</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.567643613485808</v>
+        <v>-0.7955350478383613</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.59103986279121</v>
+        <v>11.40382068137463</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.445469545067695</v>
+        <v>8.9219403904759</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.02835805793056447</v>
+        <v>0.02956947706095029</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.01642260833193818</v>
+        <v>-0.007721845296641861</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1200994241682771</v>
+        <v>0.1304254567871895</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.09549838035921687</v>
+        <v>0.1012960787137092</v>
       </c>
     </row>
     <row r="34">
